--- a/datos/PLANTILLA.xlsx
+++ b/datos/PLANTILLA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67fdac007ebf7936/Attachments/Documentos/Interfaces de phyton/oficiossup21/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67fdac007ebf7936/Attachments/Documentos/Interfaces de phyton/oficiossup21/oficios_streamlit_completo/datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FD86DE9-55E7-4E1F-8350-C96507E153DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{3FD86DE9-55E7-4E1F-8350-C96507E153DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{114785F7-CFFE-4431-87C4-CDC39D821C91}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form_Responses1" sheetId="2" r:id="rId1"/>
@@ -334,9 +334,6 @@
     <t>SALGADO</t>
   </si>
   <si>
-    <t xml:space="preserve">JOSÉ LUIS GONZÁLEZ TÉLLEZ </t>
-  </si>
-  <si>
     <t xml:space="preserve">GONZÁLEZ </t>
   </si>
   <si>
@@ -389,6 +386,9 @@
   </si>
   <si>
     <t xml:space="preserve">RODRÍGUEZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSÉ LUIS </t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -575,7 +575,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,18 +874,18 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -900,283 +899,283 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="C15" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C16" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="B18" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="B19" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="B20" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="C20" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="B21" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="C21" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1200,14 +1199,14 @@
       <selection pane="bottomLeft" sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" customWidth="1"/>
-    <col min="5" max="10" width="18.88671875" customWidth="1"/>
+    <col min="1" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="10" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +1220,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1235,7 +1234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1249,7 +1248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1263,7 +1262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1277,7 +1276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1291,7 +1290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1305,7 +1304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -1319,7 +1318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -1333,7 +1332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1347,7 +1346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
@@ -1361,7 +1360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -1375,7 +1374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
@@ -1389,7 +1388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -1403,7 +1402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
@@ -1417,7 +1416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -1431,7 +1430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>50</v>
       </c>
@@ -1445,7 +1444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
@@ -1459,7 +1458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>54</v>
       </c>
@@ -1473,7 +1472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
@@ -1487,7 +1486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>60</v>
       </c>

--- a/datos/PLANTILLA.xlsx
+++ b/datos/PLANTILLA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67fdac007ebf7936/Attachments/Documentos/Interfaces de phyton/oficiossup21/oficios_streamlit_completo/datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{3FD86DE9-55E7-4E1F-8350-C96507E153DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{114785F7-CFFE-4431-87C4-CDC39D821C91}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{3FD86DE9-55E7-4E1F-8350-C96507E153DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E0C9344-725D-4FBD-8248-A1D0D5C39DD6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">Form_Responses1!$A$1:$D$21</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">Form_Responses1!$A$1:$D$23</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="124">
   <si>
     <t>Nombre</t>
   </si>
@@ -389,6 +389,21 @@
   </si>
   <si>
     <t xml:space="preserve">JOSÉ LUIS </t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>JESUS OLIVER</t>
+  </si>
+  <si>
+    <t>OBDULIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELLO </t>
+  </si>
+  <si>
+    <t>PADILLA</t>
   </si>
 </sst>
 </file>
@@ -549,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -575,6 +590,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,6 +651,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_1" connectionId="1" xr16:uid="{B5BC6E51-790C-4FDB-AFE5-9B135B1A8224}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="5">
@@ -649,8 +669,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64FC8858-178F-4391-B001-DB317BC4FA55}" name="Form_Responses1_" displayName="Form_Responses1_" ref="A1:D21" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D21" xr:uid="{64FC8858-178F-4391-B001-DB317BC4FA55}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64FC8858-178F-4391-B001-DB317BC4FA55}" name="Form_Responses1_" displayName="Form_Responses1_" ref="A1:D23" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D23" xr:uid="{64FC8858-178F-4391-B001-DB317BC4FA55}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B5779760-C2FE-427C-A049-AA0BF2FC47DC}" uniqueName="1" name="Nombre" queryTableFieldId="1" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{78DF4F91-43F2-46A9-8375-D0A0B5D32445}" uniqueName="2" name="Apellido Paterno" queryTableFieldId="2" dataDxfId="2"/>
@@ -871,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B34576-5635-4C68-81B9-55AE273FC33E}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1176,6 +1196,34 @@
         <v>117</v>
       </c>
       <c r="D21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" t="s">
         <v>70</v>
       </c>
     </row>

--- a/datos/PLANTILLA.xlsx
+++ b/datos/PLANTILLA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67fdac007ebf7936/Attachments/Documentos/Interfaces de phyton/oficiossup21/oficios_streamlit_completo/datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{3FD86DE9-55E7-4E1F-8350-C96507E153DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E0C9344-725D-4FBD-8248-A1D0D5C39DD6}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{3FD86DE9-55E7-4E1F-8350-C96507E153DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76CA3C79-F559-40DC-ABFB-5505146DF57D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">Form_Responses1!$A$1:$D$23</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">Form_Responses1!$A$1:$D$26</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="133">
   <si>
     <t>Nombre</t>
   </si>
@@ -404,6 +404,33 @@
   </si>
   <si>
     <t>PADILLA</t>
+  </si>
+  <si>
+    <t>ROSA MARIA</t>
+  </si>
+  <si>
+    <t>ESPINOZA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CESAR </t>
+  </si>
+  <si>
+    <t>REYEZ</t>
+  </si>
+  <si>
+    <t>NUÑEZ</t>
+  </si>
+  <si>
+    <t>SANTA MAGDALENA</t>
+  </si>
+  <si>
+    <t>HOYOS</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
   </si>
 </sst>
 </file>
@@ -669,8 +696,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64FC8858-178F-4391-B001-DB317BC4FA55}" name="Form_Responses1_" displayName="Form_Responses1_" ref="A1:D23" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D23" xr:uid="{64FC8858-178F-4391-B001-DB317BC4FA55}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64FC8858-178F-4391-B001-DB317BC4FA55}" name="Form_Responses1_" displayName="Form_Responses1_" ref="A1:D26" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D26" xr:uid="{64FC8858-178F-4391-B001-DB317BC4FA55}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B5779760-C2FE-427C-A049-AA0BF2FC47DC}" uniqueName="1" name="Nombre" queryTableFieldId="1" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{78DF4F91-43F2-46A9-8375-D0A0B5D32445}" uniqueName="2" name="Apellido Paterno" queryTableFieldId="2" dataDxfId="2"/>
@@ -891,17 +918,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B34576-5635-4C68-81B9-55AE273FC33E}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.140625" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
     <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1200,13 +1227,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" t="s">
         <v>114</v>
       </c>
       <c r="D22" t="s">
@@ -1214,17 +1241,59 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" t="s">
         <v>123</v>
       </c>
       <c r="D23" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/datos/PLANTILLA.xlsx
+++ b/datos/PLANTILLA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67fdac007ebf7936/Attachments/Documentos/Interfaces de phyton/oficiossup21/oficios_streamlit_completo/datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{3FD86DE9-55E7-4E1F-8350-C96507E153DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76CA3C79-F559-40DC-ABFB-5505146DF57D}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{3FD86DE9-55E7-4E1F-8350-C96507E153DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48961556-12B3-4258-8D05-E6E2856F6082}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">Form_Responses1!$A$1:$D$26</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">Form_Responses1!$A$1:$D$28</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="150">
   <si>
     <t>Nombre</t>
   </si>
@@ -406,31 +406,82 @@
     <t>PADILLA</t>
   </si>
   <si>
+    <t>MAESTRO</t>
+  </si>
+  <si>
+    <t>PROFESOR</t>
+  </si>
+  <si>
+    <t>PROFESORA</t>
+  </si>
+  <si>
+    <t>SANTA MAGDALENA</t>
+  </si>
+  <si>
+    <t>HOYOS</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>DOCTORA</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>NUÑEZ</t>
+  </si>
+  <si>
+    <t>Funcion</t>
+  </si>
+  <si>
+    <t>Grado</t>
+  </si>
+  <si>
+    <t>Apellido_Paterno</t>
+  </si>
+  <si>
+    <t>Apellido_Materno</t>
+  </si>
+  <si>
     <t>ROSA MARIA</t>
   </si>
   <si>
-    <t>ESPINOZA</t>
-  </si>
-  <si>
     <t>LOPEZ</t>
   </si>
   <si>
-    <t xml:space="preserve">CESAR </t>
-  </si>
-  <si>
-    <t>REYEZ</t>
-  </si>
-  <si>
-    <t>NUÑEZ</t>
-  </si>
-  <si>
-    <t>SANTA MAGDALENA</t>
-  </si>
-  <si>
-    <t>HOYOS</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
+    <t>PROFESOR DE CLASE DIRTECTA</t>
+  </si>
+  <si>
+    <t>MARTHA ELENA</t>
+  </si>
+  <si>
+    <t>RENDON</t>
+  </si>
+  <si>
+    <t>ANDRACA</t>
+  </si>
+  <si>
+    <t>APOYO</t>
+  </si>
+  <si>
+    <t>ESTRADA</t>
+  </si>
+  <si>
+    <t>ALEJANDRA MALINALLI</t>
+  </si>
+  <si>
+    <t>CARRILLO</t>
+  </si>
+  <si>
+    <t>INSPECTORA</t>
+  </si>
+  <si>
+    <t>MAESTRA</t>
   </si>
 </sst>
 </file>
@@ -622,7 +673,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -662,9 +716,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Respuestas de formulario 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="6"/>
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
-      <tableStyleElement type="secondRowStripe" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -678,31 +732,32 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_1" connectionId="1" xr16:uid="{B5BC6E51-790C-4FDB-AFE5-9B135B1A8224}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="5">
-    <queryTableFields count="4">
+  <queryTableRefresh nextId="6" unboundColumnsRight="1">
+    <queryTableFields count="5">
       <queryTableField id="1" name="Nombre" tableColumnId="1"/>
       <queryTableField id="2" name="Apellido Paterno" tableColumnId="2"/>
       <queryTableField id="3" name="Apellido Materno" tableColumnId="3"/>
       <queryTableField id="4" name="RFC" tableColumnId="4"/>
+      <queryTableField id="5" dataBound="0" tableColumnId="5"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64FC8858-178F-4391-B001-DB317BC4FA55}" name="Form_Responses1_" displayName="Form_Responses1_" ref="A1:D26" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D26" xr:uid="{64FC8858-178F-4391-B001-DB317BC4FA55}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B5779760-C2FE-427C-A049-AA0BF2FC47DC}" uniqueName="1" name="Nombre" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{78DF4F91-43F2-46A9-8375-D0A0B5D32445}" uniqueName="2" name="Apellido Paterno" queryTableFieldId="2" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{91FCD129-D4ED-4D29-8B48-701D84A67AE1}" uniqueName="3" name="Apellido Materno" queryTableFieldId="3" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{43107425-4264-416B-8E75-FFBA75F8801F}" uniqueName="4" name="RFC" queryTableFieldId="4" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64FC8858-178F-4391-B001-DB317BC4FA55}" name="Form_Responses1_" displayName="Form_Responses1_" ref="A1:E28" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E28" xr:uid="{64FC8858-178F-4391-B001-DB317BC4FA55}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E28">
+    <sortCondition ref="D1:D28"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B5779760-C2FE-427C-A049-AA0BF2FC47DC}" uniqueName="1" name="Nombre" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{78DF4F91-43F2-46A9-8375-D0A0B5D32445}" uniqueName="2" name="Apellido_Paterno" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{91FCD129-D4ED-4D29-8B48-701D84A67AE1}" uniqueName="3" name="Apellido_Materno" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{43107425-4264-416B-8E75-FFBA75F8801F}" uniqueName="4" name="Funcion" queryTableFieldId="4" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{65B46DFA-B338-4FBF-BED5-61C22BBDE65D}" uniqueName="5" name="Grado" queryTableFieldId="5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -918,382 +973,495 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B34576-5635-4C68-81B9-55AE273FC33E}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.140625" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="E1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>65</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>66</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="E3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>67</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
         <v>68</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C7" t="s">
         <v>69</v>
       </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
         <v>72</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" t="s">
         <v>73</v>
       </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>74</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B9" t="s">
         <v>75</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C9" t="s">
         <v>76</v>
       </c>
-      <c r="D5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>77</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
         <v>78</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C10" t="s">
         <v>79</v>
       </c>
-      <c r="D6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>80</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B12" t="s">
         <v>81</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C12" t="s">
         <v>82</v>
       </c>
-      <c r="D8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>83</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B13" t="s">
         <v>84</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C13" t="s">
         <v>85</v>
       </c>
-      <c r="D9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>86</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
         <v>87</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C14" t="s">
         <v>88</v>
       </c>
-      <c r="D10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>89</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" t="s">
         <v>90</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C15" t="s">
         <v>91</v>
       </c>
-      <c r="D11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>92</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B16" t="s">
         <v>93</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C16" t="s">
         <v>94</v>
       </c>
-      <c r="D12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>95</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C17" t="s">
         <v>96</v>
       </c>
-      <c r="D13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>97</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B18" t="s">
         <v>98</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C18" t="s">
         <v>99</v>
       </c>
-      <c r="D14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>118</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B19" t="s">
         <v>100</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C19" t="s">
         <v>101</v>
       </c>
-      <c r="D15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>102</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B20" t="s">
         <v>103</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C20" t="s">
         <v>104</v>
       </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>105</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B21" t="s">
         <v>68</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C21" t="s">
         <v>65</v>
       </c>
-      <c r="D17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>106</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B22" t="s">
         <v>107</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C22" t="s">
         <v>108</v>
       </c>
-      <c r="D18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>109</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C23" t="s">
         <v>111</v>
       </c>
-      <c r="D19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>112</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B24" t="s">
         <v>113</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C24" t="s">
         <v>114</v>
       </c>
-      <c r="D20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>115</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B25" t="s">
         <v>116</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C25" t="s">
         <v>117</v>
       </c>
-      <c r="D21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>120</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B26" t="s">
         <v>119</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C26" t="s">
         <v>114</v>
       </c>
-      <c r="D22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>121</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B27" t="s">
         <v>122</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C27" t="s">
         <v>123</v>
       </c>
-      <c r="D23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="D27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="9" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" t="s">
         <v>126</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/datos/PLANTILLA.xlsx
+++ b/datos/PLANTILLA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67fdac007ebf7936/Attachments/Documentos/Interfaces de phyton/oficiossup21/oficios_streamlit_completo/datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{3FD86DE9-55E7-4E1F-8350-C96507E153DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48961556-12B3-4258-8D05-E6E2856F6082}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{3FD86DE9-55E7-4E1F-8350-C96507E153DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACB5179A-B199-41EC-8903-88C85446F978}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="151">
   <si>
     <t>Nombre</t>
   </si>
@@ -442,12 +442,6 @@
     <t>Grado</t>
   </si>
   <si>
-    <t>Apellido_Paterno</t>
-  </si>
-  <si>
-    <t>Apellido_Materno</t>
-  </si>
-  <si>
     <t>ROSA MARIA</t>
   </si>
   <si>
@@ -482,6 +476,15 @@
   </si>
   <si>
     <t>MAESTRA</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>APELLIDO PATERNO</t>
+  </si>
+  <si>
+    <t>APELLIDO MATERNO</t>
   </si>
 </sst>
 </file>
@@ -642,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -668,7 +671,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,6 +734,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_1" connectionId="1" xr16:uid="{B5BC6E51-790C-4FDB-AFE5-9B135B1A8224}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="6" unboundColumnsRight="1">
@@ -753,9 +759,9 @@
     <sortCondition ref="D1:D28"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B5779760-C2FE-427C-A049-AA0BF2FC47DC}" uniqueName="1" name="Nombre" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{78DF4F91-43F2-46A9-8375-D0A0B5D32445}" uniqueName="2" name="Apellido_Paterno" queryTableFieldId="2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{91FCD129-D4ED-4D29-8B48-701D84A67AE1}" uniqueName="3" name="Apellido_Materno" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{B5779760-C2FE-427C-A049-AA0BF2FC47DC}" uniqueName="1" name="NOMBRE" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{78DF4F91-43F2-46A9-8375-D0A0B5D32445}" uniqueName="2" name="APELLIDO PATERNO" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{91FCD129-D4ED-4D29-8B48-701D84A67AE1}" uniqueName="3" name="APELLIDO MATERNO" queryTableFieldId="3" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{43107425-4264-416B-8E75-FFBA75F8801F}" uniqueName="4" name="Funcion" queryTableFieldId="4" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{65B46DFA-B338-4FBF-BED5-61C22BBDE65D}" uniqueName="5" name="Grado" queryTableFieldId="5" dataDxfId="0"/>
   </tableColumns>
@@ -976,7 +982,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -990,13 +996,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
         <v>134</v>
@@ -1007,16 +1013,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
         <v>141</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>142</v>
-      </c>
-      <c r="C2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" t="s">
-        <v>144</v>
       </c>
       <c r="E2" t="s">
         <v>126</v>
@@ -1074,20 +1080,20 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="E6" t="s">
         <v>147</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1449,16 +1455,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B28" t="s">
         <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E28" t="s">
         <v>126</v>

--- a/datos/PLANTILLA.xlsx
+++ b/datos/PLANTILLA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67fdac007ebf7936/Attachments/Documentos/Interfaces de phyton/oficiossup21/oficios_streamlit_completo/datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{3FD86DE9-55E7-4E1F-8350-C96507E153DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACB5179A-B199-41EC-8903-88C85446F978}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{3FD86DE9-55E7-4E1F-8350-C96507E153DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA371717-C8B4-4B09-BAD8-8496611EF2E2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="144">
   <si>
     <t>Nombre</t>
   </si>
@@ -406,15 +406,6 @@
     <t>PADILLA</t>
   </si>
   <si>
-    <t>MAESTRO</t>
-  </si>
-  <si>
-    <t>PROFESOR</t>
-  </si>
-  <si>
-    <t>PROFESORA</t>
-  </si>
-  <si>
     <t>SANTA MAGDALENA</t>
   </si>
   <si>
@@ -424,9 +415,6 @@
     <t>GARCIA</t>
   </si>
   <si>
-    <t>DOCTORA</t>
-  </si>
-  <si>
     <t>CESAR</t>
   </si>
   <si>
@@ -436,12 +424,6 @@
     <t>NUÑEZ</t>
   </si>
   <si>
-    <t>Funcion</t>
-  </si>
-  <si>
-    <t>Grado</t>
-  </si>
-  <si>
     <t>ROSA MARIA</t>
   </si>
   <si>
@@ -473,9 +455,6 @@
   </si>
   <si>
     <t>INSPECTORA</t>
-  </si>
-  <si>
-    <t>MAESTRA</t>
   </si>
   <si>
     <t>NOMBRE</t>
@@ -675,10 +654,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -718,9 +694,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Respuestas de formulario 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="5"/>
+      <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -740,30 +716,28 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_1" connectionId="1" xr16:uid="{B5BC6E51-790C-4FDB-AFE5-9B135B1A8224}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="6" unboundColumnsRight="1">
-    <queryTableFields count="5">
+  <queryTableRefresh nextId="6">
+    <queryTableFields count="4">
       <queryTableField id="1" name="Nombre" tableColumnId="1"/>
       <queryTableField id="2" name="Apellido Paterno" tableColumnId="2"/>
       <queryTableField id="3" name="Apellido Materno" tableColumnId="3"/>
       <queryTableField id="4" name="RFC" tableColumnId="4"/>
-      <queryTableField id="5" dataBound="0" tableColumnId="5"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64FC8858-178F-4391-B001-DB317BC4FA55}" name="Form_Responses1_" displayName="Form_Responses1_" ref="A1:E28" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E28" xr:uid="{64FC8858-178F-4391-B001-DB317BC4FA55}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64FC8858-178F-4391-B001-DB317BC4FA55}" name="Form_Responses1_" displayName="Form_Responses1_" ref="A1:D28" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D28" xr:uid="{64FC8858-178F-4391-B001-DB317BC4FA55}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D28">
     <sortCondition ref="D1:D28"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B5779760-C2FE-427C-A049-AA0BF2FC47DC}" uniqueName="1" name="NOMBRE" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{78DF4F91-43F2-46A9-8375-D0A0B5D32445}" uniqueName="2" name="APELLIDO PATERNO" queryTableFieldId="2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{91FCD129-D4ED-4D29-8B48-701D84A67AE1}" uniqueName="3" name="APELLIDO MATERNO" queryTableFieldId="3" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{43107425-4264-416B-8E75-FFBA75F8801F}" uniqueName="4" name="Funcion" queryTableFieldId="4" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{65B46DFA-B338-4FBF-BED5-61C22BBDE65D}" uniqueName="5" name="Grado" queryTableFieldId="5" dataDxfId="0"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B5779760-C2FE-427C-A049-AA0BF2FC47DC}" uniqueName="1" name="NOMBRE" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{78DF4F91-43F2-46A9-8375-D0A0B5D32445}" uniqueName="2" name="APELLIDO PATERNO" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{91FCD129-D4ED-4D29-8B48-701D84A67AE1}" uniqueName="3" name="APELLIDO MATERNO" queryTableFieldId="3" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{43107425-4264-416B-8E75-FFBA75F8801F}" uniqueName="4" name="RFC" queryTableFieldId="4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -979,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B34576-5635-4C68-81B9-55AE273FC33E}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -991,44 +965,37 @@
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" t="s">
         <v>134</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>141</v>
-      </c>
       <c r="D2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -1041,62 +1008,50 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>127</v>
-      </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -1109,11 +1064,8 @@
       <c r="D7" t="s">
         <v>70</v>
       </c>
-      <c r="E7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -1126,11 +1078,8 @@
       <c r="D8" t="s">
         <v>70</v>
       </c>
-      <c r="E8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -1143,11 +1092,8 @@
       <c r="D9" t="s">
         <v>70</v>
       </c>
-      <c r="E9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -1160,11 +1106,8 @@
       <c r="D10" t="s">
         <v>70</v>
       </c>
-      <c r="E10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1177,11 +1120,8 @@
       <c r="D11" t="s">
         <v>70</v>
       </c>
-      <c r="E11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -1194,11 +1134,8 @@
       <c r="D12" t="s">
         <v>70</v>
       </c>
-      <c r="E12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -1211,11 +1148,8 @@
       <c r="D13" t="s">
         <v>70</v>
       </c>
-      <c r="E13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -1228,11 +1162,8 @@
       <c r="D14" t="s">
         <v>70</v>
       </c>
-      <c r="E14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -1245,11 +1176,8 @@
       <c r="D15" t="s">
         <v>70</v>
       </c>
-      <c r="E15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -1262,11 +1190,8 @@
       <c r="D16" t="s">
         <v>70</v>
       </c>
-      <c r="E16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -1279,11 +1204,8 @@
       <c r="D17" t="s">
         <v>70</v>
       </c>
-      <c r="E17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -1296,11 +1218,8 @@
       <c r="D18" t="s">
         <v>70</v>
       </c>
-      <c r="E18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>118</v>
       </c>
@@ -1313,11 +1232,8 @@
       <c r="D19" t="s">
         <v>70</v>
       </c>
-      <c r="E19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>102</v>
       </c>
@@ -1330,11 +1246,8 @@
       <c r="D20" t="s">
         <v>70</v>
       </c>
-      <c r="E20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -1347,11 +1260,8 @@
       <c r="D21" t="s">
         <v>70</v>
       </c>
-      <c r="E21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -1364,11 +1274,8 @@
       <c r="D22" t="s">
         <v>70</v>
       </c>
-      <c r="E22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -1381,11 +1288,8 @@
       <c r="D23" t="s">
         <v>70</v>
       </c>
-      <c r="E23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>112</v>
       </c>
@@ -1398,11 +1302,8 @@
       <c r="D24" t="s">
         <v>70</v>
       </c>
-      <c r="E24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>115</v>
       </c>
@@ -1415,11 +1316,8 @@
       <c r="D25" t="s">
         <v>70</v>
       </c>
-      <c r="E25" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>120</v>
       </c>
@@ -1432,11 +1330,8 @@
       <c r="D26" t="s">
         <v>70</v>
       </c>
-      <c r="E26" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>121</v>
       </c>
@@ -1449,25 +1344,19 @@
       <c r="D27" t="s">
         <v>70</v>
       </c>
-      <c r="E27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B28" t="s">
         <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/datos/PLANTILLA.xlsx
+++ b/datos/PLANTILLA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67fdac007ebf7936/Attachments/Documentos/Interfaces de phyton/oficiossup21/oficios_streamlit_completo/datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{3FD86DE9-55E7-4E1F-8350-C96507E153DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA371717-C8B4-4B09-BAD8-8496611EF2E2}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{3FD86DE9-55E7-4E1F-8350-C96507E153DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71892BB4-1C6A-46CB-A8AC-5D73CDC28183}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -319,9 +319,6 @@
     <t>VARELA</t>
   </si>
   <si>
-    <t xml:space="preserve">GUILLERMO </t>
-  </si>
-  <si>
     <t xml:space="preserve">VAZQUEZ </t>
   </si>
   <si>
@@ -464,6 +461,9 @@
   </si>
   <si>
     <t>APELLIDO MATERNO</t>
+  </si>
+  <si>
+    <t>GUILLERMO OMAR</t>
   </si>
 </sst>
 </file>
@@ -956,7 +956,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -969,13 +969,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
         <v>141</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>142</v>
-      </c>
-      <c r="C1" t="s">
-        <v>143</v>
       </c>
       <c r="D1" t="s">
         <v>63</v>
@@ -983,16 +983,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
         <v>133</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>134</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>135</v>
-      </c>
-      <c r="D2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1011,13 +1011,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
         <v>124</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>125</v>
-      </c>
-      <c r="C4" t="s">
-        <v>126</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" t="s">
         <v>127</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>128</v>
-      </c>
-      <c r="C5" t="s">
-        <v>129</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -1039,16 +1039,16 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
         <v>138</v>
       </c>
-      <c r="B6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>139</v>
-      </c>
-      <c r="D6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1193,13 +1193,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
         <v>70</v>
@@ -1207,13 +1207,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
         <v>97</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>98</v>
-      </c>
-      <c r="C18" t="s">
-        <v>99</v>
       </c>
       <c r="D18" t="s">
         <v>70</v>
@@ -1221,13 +1221,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" t="s">
         <v>100</v>
-      </c>
-      <c r="C19" t="s">
-        <v>101</v>
       </c>
       <c r="D19" t="s">
         <v>70</v>
@@ -1235,13 +1235,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" t="s">
         <v>102</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>103</v>
-      </c>
-      <c r="C20" t="s">
-        <v>104</v>
       </c>
       <c r="D20" t="s">
         <v>70</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
@@ -1263,13 +1263,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" t="s">
         <v>106</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>107</v>
-      </c>
-      <c r="C22" t="s">
-        <v>108</v>
       </c>
       <c r="D22" t="s">
         <v>70</v>
@@ -1277,13 +1277,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
         <v>109</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>110</v>
-      </c>
-      <c r="C23" t="s">
-        <v>111</v>
       </c>
       <c r="D23" t="s">
         <v>70</v>
@@ -1291,13 +1291,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" t="s">
         <v>112</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>113</v>
-      </c>
-      <c r="C24" t="s">
-        <v>114</v>
       </c>
       <c r="D24" t="s">
         <v>70</v>
@@ -1305,13 +1305,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" t="s">
         <v>115</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>116</v>
-      </c>
-      <c r="C25" t="s">
-        <v>117</v>
       </c>
       <c r="D25" t="s">
         <v>70</v>
@@ -1319,13 +1319,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D26" t="s">
         <v>70</v>
@@ -1333,13 +1333,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" t="s">
         <v>121</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>122</v>
-      </c>
-      <c r="C27" t="s">
-        <v>123</v>
       </c>
       <c r="D27" t="s">
         <v>70</v>
@@ -1347,16 +1347,16 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28" t="s">
         <v>91</v>
       </c>
       <c r="C28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" t="s">
         <v>131</v>
-      </c>
-      <c r="D28" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
